--- a/javaapplication2/files/xlsx/ProfesoresValidados.xlsx
+++ b/javaapplication2/files/xlsx/ProfesoresValidados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Nombre</t>
   </si>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>Universidad Católica Andrés Bello</t>
+  </si>
+  <si>
+    <t>Octavio</t>
+  </si>
+  <si>
+    <t>Ocharán</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Universidad Autonoma de Mexico</t>
   </si>
 </sst>
 </file>
@@ -86,17 +98,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.73828125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="20.4296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.07421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.39453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.9921875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.73828125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.4296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.4140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,6 +145,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/javaapplication2/files/xlsx/ProfesoresValidados.xlsx
+++ b/javaapplication2/files/xlsx/ProfesoresValidados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Nombre</t>
   </si>
@@ -66,6 +66,39 @@
   </si>
   <si>
     <t>ivanxspoti@gmail.com</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Roguez</t>
+  </si>
+  <si>
+    <t>Franco</t>
+  </si>
+  <si>
+    <t>JDEJED</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>Valdes</t>
+  </si>
+  <si>
+    <t>Contreras</t>
+  </si>
+  <si>
+    <t>axlvaldez74@gmail.com</t>
+  </si>
+  <si>
+    <t>Universidad Veracruzana</t>
   </si>
 </sst>
 </file>
@@ -110,7 +143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -119,7 +152,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="8.39453125"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="15.9921875"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.73828125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.34375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.67578125"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="31.4140625"/>
   </cols>
   <sheetData>
@@ -191,6 +224,142 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/javaapplication2/files/xlsx/ProfesoresValidados.xlsx
+++ b/javaapplication2/files/xlsx/ProfesoresValidados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>Nombre</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Universidad Veracruzana</t>
+  </si>
+  <si>
+    <t>Arenas</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -360,6 +363,23 @@
         <v>28</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/javaapplication2/files/xlsx/ProfesoresValidados.xlsx
+++ b/javaapplication2/files/xlsx/ProfesoresValidados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>Nombre</t>
   </si>
@@ -146,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -380,6 +380,23 @@
         <v>28</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/javaapplication2/files/xlsx/ProfesoresValidados.xlsx
+++ b/javaapplication2/files/xlsx/ProfesoresValidados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>Nombre</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Arenas</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -397,6 +400,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
